--- a/biology/Histoire de la zoologie et de la botanique/Miq/Miq..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Miq/Miq..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Anton Wilhelm Miquel est un botaniste néerlandais, né à Neuenhaus près de Hanovre le 24 octobre 1811 et mort à Utrecht le 23 janvier 1871.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dirige le jardin botanique de Rotterdam de 1835 à 1846 et celui d’Utrecht de 1859 à 1871. Il est directeur du Rijksherbarium de Leyde à partir de 1862.
 Bien qu’il n’ait jamais voyagé, il accumule une large collection de plantes d’Australie et des possessions hollandaises d'Asie grâce à un dense réseau de correspondants. Il est l’auteur d’importantes familles dont les Casuarinaceae, les Myrtaceae, les Piperaceae et les Polygonaceae.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genera Cactearum, Rotterdam, 1839
 Monographia Cycadearum, Utrecht, 1842
